--- a/training/output/CNN/W/W3_W2.xlsx
+++ b/training/output/CNN/W/W3_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6725</v>
+        <v>0.09104166666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>2.781711292266846</v>
+        <v>3.205373764038086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8758333333333332</v>
+        <v>0.3108333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.167291994094849</v>
+        <v>2.89506322145462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.2995833333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>1.999399614334106</v>
+        <v>2.853556334972382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.868007311820984</v>
+        <v>2.831910729408264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.338125</v>
       </c>
       <c r="B6" t="n">
-        <v>1.782067975997925</v>
+        <v>2.786503612995148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.3147916666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.655132479667664</v>
+        <v>2.742596983909607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.4079166666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1.624601650238037</v>
+        <v>2.697450816631317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.3745833333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>1.646627950668335</v>
+        <v>2.631256878376007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.3175</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5946848487854</v>
+        <v>2.613526225090027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.40125</v>
       </c>
       <c r="B11" t="n">
-        <v>1.53953197479248</v>
+        <v>2.615287303924561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.343125</v>
       </c>
       <c r="B12" t="n">
-        <v>1.535228505134582</v>
+        <v>2.578015029430389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.358125</v>
       </c>
       <c r="B13" t="n">
-        <v>1.50001208782196</v>
+        <v>2.561801731586456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.353125</v>
       </c>
       <c r="B14" t="n">
-        <v>1.506925401687622</v>
+        <v>2.577383756637573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.34</v>
       </c>
       <c r="B15" t="n">
-        <v>1.505937585830688</v>
+        <v>2.517584800720215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.3525</v>
       </c>
       <c r="B16" t="n">
-        <v>1.49927161693573</v>
+        <v>2.486940801143646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.3272916666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.508989844322205</v>
+        <v>2.480295240879059</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.3725</v>
       </c>
       <c r="B18" t="n">
-        <v>1.481416110992432</v>
+        <v>2.474287509918213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.355</v>
       </c>
       <c r="B19" t="n">
-        <v>1.465396285057068</v>
+        <v>2.443841636180878</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.3275</v>
       </c>
       <c r="B20" t="n">
-        <v>1.452892608642578</v>
+        <v>2.477555811405182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.3514583333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.466235837936401</v>
+        <v>2.436872005462646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3577083333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.47243091583252</v>
+        <v>2.407739460468292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="B23" t="n">
-        <v>1.445793418884277</v>
+        <v>2.435481429100037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3352083333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.481808910369873</v>
+        <v>2.388221025466919</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.4039583333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>1.442778425216675</v>
+        <v>2.392912626266479</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.380625</v>
       </c>
       <c r="B26" t="n">
-        <v>1.439897193908691</v>
+        <v>2.362233817577362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.4010416666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.452290182113647</v>
+        <v>2.376324653625488</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>1.443110499382019</v>
+        <v>2.345642864704132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.3985416666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.435643544197083</v>
+        <v>2.316336572170258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.353125</v>
       </c>
       <c r="B30" t="n">
-        <v>1.429402208328247</v>
+        <v>2.327867686748505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.40375</v>
       </c>
       <c r="B31" t="n">
-        <v>1.442556824684143</v>
+        <v>2.362004041671753</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.3985416666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.431667394638062</v>
+        <v>2.345655500888824</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.3960416666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>1.425913677215576</v>
+        <v>2.30464231967926</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3775</v>
       </c>
       <c r="B34" t="n">
-        <v>1.419651927947998</v>
+        <v>2.284959614276886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.4235416666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>1.426300377845764</v>
+        <v>2.264820754528046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.418153290748596</v>
+        <v>2.26867002248764</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.4227083333333333</v>
       </c>
       <c r="B37" t="n">
-        <v>1.417280802726746</v>
+        <v>2.259985089302063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.4320833333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>1.413520503044128</v>
+        <v>2.256169080734253</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.4383333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.416678576469421</v>
+        <v>2.273314237594604</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.425625</v>
       </c>
       <c r="B40" t="n">
-        <v>1.419885816574097</v>
+        <v>2.292335391044617</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4316666666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>1.427584805488586</v>
+        <v>2.272631406784058</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.383125</v>
       </c>
       <c r="B42" t="n">
-        <v>1.413985071182251</v>
+        <v>2.212618172168732</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.42375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.411677260398865</v>
+        <v>2.199527859687805</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.412237949371338</v>
+        <v>2.180916488170624</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.412156562805176</v>
+        <v>2.162267506122589</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.464375</v>
       </c>
       <c r="B46" t="n">
-        <v>1.417318081855774</v>
+        <v>2.209208011627197</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.496875</v>
       </c>
       <c r="B47" t="n">
-        <v>1.406837501525879</v>
+        <v>2.149833381175995</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.5083333333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.437570552825928</v>
+        <v>2.135475277900696</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.5</v>
       </c>
       <c r="B49" t="n">
-        <v>1.409595546722412</v>
+        <v>2.115009546279907</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.5510416666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.410311679840088</v>
+        <v>2.104087144136429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.563125</v>
       </c>
       <c r="B51" t="n">
-        <v>1.407137713432312</v>
+        <v>2.099551916122437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="B52" t="n">
-        <v>1.422427597045898</v>
+        <v>2.109816074371338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.55125</v>
       </c>
       <c r="B53" t="n">
-        <v>1.449993491172791</v>
+        <v>2.088705450296402</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.520625</v>
       </c>
       <c r="B54" t="n">
-        <v>1.430277972221375</v>
+        <v>2.089683949947357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.5739583333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>1.411939926147461</v>
+        <v>2.02152481675148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.6139583333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.415824866294861</v>
+        <v>1.991471350193024</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.6122916666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.438437972068787</v>
+        <v>1.972371608018875</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.5691666666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.421832237243652</v>
+        <v>2.000376433134079</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.619375</v>
       </c>
       <c r="B59" t="n">
-        <v>1.416543741226196</v>
+        <v>1.981401026248932</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.5789583333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.412340984344483</v>
+        <v>1.948423326015472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.5939583333333334</v>
       </c>
       <c r="B61" t="n">
-        <v>1.411695785522461</v>
+        <v>1.977175682783127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.5914583333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>1.420770001411438</v>
+        <v>1.954644173383713</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.6064583333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.415733222961426</v>
+        <v>1.935605466365814</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.6197916666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.408138213157654</v>
+        <v>1.930594652891159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.6116666666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.406415863037109</v>
+        <v>1.916457563638687</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.5889583333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.404193892478943</v>
+        <v>1.843048691749573</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.6289583333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1.417111320495605</v>
+        <v>1.880684226751328</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.6018749999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403506164550781</v>
+        <v>1.879291117191315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.6322916666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1.403644123077393</v>
+        <v>1.827011495828629</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.6647916666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>1.40061592578888</v>
+        <v>1.804599612951279</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.5743750000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>1.400218462944031</v>
+        <v>1.83300793170929</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.6068749999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>1.404321708679199</v>
+        <v>1.783893227577209</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.6310416666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>1.419328365325928</v>
+        <v>1.787868231534958</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.434383549690247</v>
+        <v>1.745968043804169</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.6416666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.429601039886475</v>
+        <v>1.76232048869133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.401987376213074</v>
+        <v>1.757252931594849</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.649375</v>
       </c>
       <c r="B77" t="n">
-        <v>1.412579483985901</v>
+        <v>1.680789679288864</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.6475</v>
       </c>
       <c r="B78" t="n">
-        <v>1.401303195953369</v>
+        <v>1.663488507270813</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.6489583333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>1.401909713745117</v>
+        <v>1.704481810331345</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.6316666666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.398947296142578</v>
+        <v>1.739406079053879</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.401303253173828</v>
+        <v>1.674645006656647</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.6797916666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.400758023262024</v>
+        <v>1.63057953119278</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.6947916666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.436926426887512</v>
+        <v>1.605505108833313</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.6950000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>1.416139159202576</v>
+        <v>1.591929256916046</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.7420833333333333</v>
       </c>
       <c r="B85" t="n">
-        <v>1.403644304275513</v>
+        <v>1.619907379150391</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.6972916666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.411960349082947</v>
+        <v>1.573492139577866</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.7045833333333335</v>
       </c>
       <c r="B87" t="n">
-        <v>1.403289356231689</v>
+        <v>1.610336512327194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.7460416666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.401810221672058</v>
+        <v>1.5858473777771</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>1.398645548820496</v>
+        <v>1.586400300264359</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.7020833333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39788444519043</v>
+        <v>1.62716618180275</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.7947916666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.400010447502136</v>
+        <v>1.573211669921875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.7647916666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.400309619903565</v>
+        <v>1.562425196170807</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.8058333333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399908933639526</v>
+        <v>1.534847259521484</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.7777083333333333</v>
       </c>
       <c r="B94" t="n">
-        <v>1.401827435493469</v>
+        <v>1.54698970913887</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.7929166666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39806854724884</v>
+        <v>1.512108266353607</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.80375</v>
       </c>
       <c r="B96" t="n">
-        <v>1.398750338554382</v>
+        <v>1.531657963991165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.8025</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39442994594574</v>
+        <v>1.520091414451599</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.7943750000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>1.395344634056091</v>
+        <v>1.515728801488876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.8439583333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396693048477173</v>
+        <v>1.511442929506302</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.8252083333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.406230745315552</v>
+        <v>1.479278296232224</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.8814583333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>1.416710920333862</v>
+        <v>1.444710373878479</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.879375</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.432490885257721</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.8514583333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.43499344587326</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.8689583333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.43004122376442</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.40246844291687</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.395648688077927</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8658333333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.360269755125046</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.596968084573746</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.474260270595551</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.347415119409561</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9172916666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.324402987957001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9172916666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.294374197721481</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8916666666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.309970110654831</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8947916666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.342910081148148</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.307275265455246</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.325218588113785</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8422916666666665</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.599818676710129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.926875</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.279335796833038</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.242831200361252</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9197916666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.201959013938904</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9247916666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.168980568647385</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9497916666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.156893372535706</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.116301774978638</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.100125461816788</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9370833333333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.104016184806824</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9422916666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.082988262176514</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.106142967939377</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9472916666666665</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.090379685163498</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.106900006532669</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.124068170785904</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.030772313475609</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.020099833607674</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9765737503767014</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9830631166696548</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.005439355969429</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.009307742118835</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.002377435564995</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9919766932725906</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.161148428916931</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.015770524740219</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9724293947219849</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9465075433254242</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9244248121976852</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.918737068772316</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.8912850618362427</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9107554703950882</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9002640694379807</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9121908694505692</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.886790543794632</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.868086501955986</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8564682602882385</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.8694088310003281</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.8684795647859573</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.8429576456546783</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.8363323509693146</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8337393701076508</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.8361582159996033</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8368177115917206</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.830754354596138</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.8405296057462692</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.829486757516861</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8115506321191788</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8189757913351059</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8190644979476929</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8055747449398041</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8236024975776672</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7995769381523132</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.8080316931009293</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7958614826202393</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8196236342191696</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8034496307373047</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7906592041254044</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8053461909294128</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.8033030331134796</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7890264689922333</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7832032442092896</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7982214391231537</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.788059264421463</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7819876968860626</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7757831513881683</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7865374386310577</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7740729004144669</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7916276603937149</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7819343954324722</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7847129106521606</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7707721889019012</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7755398899316788</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7813992649316788</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7692977041006088</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.770107626914978</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7592900693416595</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7612410038709641</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7653529345989227</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7787327617406845</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7671797573566437</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7632482796907425</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7646449953317642</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7821105122566223</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7703491598367691</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.76727294921875</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7582047432661057</v>
       </c>
     </row>
   </sheetData>
